--- a/excel-files/descriptions/descriptions-list.xlsx
+++ b/excel-files/descriptions/descriptions-list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,1183 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Descripción Comercial</t>
+          <t>Descripción</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mesa de Centro Moderna Montego 1 Cajón</t>
+          <t>Vino Catena Cabernet 750ml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"La mesa de centro Montego 1 es la perfección en decoración. Su diseño moderno y elegante encaja perfectamente con cualquier estilo de hogar. Con su cajón, tiene suficiente espacio para guardar pequeños objetos o efectos personales. Perfecta para vivir más cómodamente en un ambiente acogedor."</t>
+          <t>Descubre la exquisitez del Vino Catena Cabernet, una joya de los viñedos argentinos en cada botella de 750 ml. Este vino tinto premium destaca por su intenso color rubí y su aroma cautivador, donde se entrelazan notas de frutas negras maduras, especias y un toque sutil de roble. En boca, ofrece una estructura robusta y elegante, con taninos aterciopelados que prometen una experiencia memorable. Perfecto para acompañar carnes rojas, quesos curados o disfrutar solo, el Catena Cabernet es la elección ideal para quienes buscan sofisticación en cada sorbo. ¡Deleita tus sentidos con este emblemático vino!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Whisky Evan Williams Black Label 750ml</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Descubre el sabor inconfundible del Whisky Evan Williams Black Label, una auténtica joya de la destilería que combina tradición y calidad. Con una rica mezcla de maíz, centeno y cebada, este whisky de 750ml ofrece un equilibrio perfecto entre dulzura y notas ahumadas, logrando un acabado suave y largo en cada sorbo. Ideal para disfrutar solo, en las rocas o como base para sofisticados cócteles, el Evan Williams Black Label es el compañero perfecto para cualquier ocasión. Sumérgete en la esencia del verdadero whisky estadounidense y eleva tu experiencia de degustación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ron Capitan Morgan 700ml + Chopp Edición Limitada</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Descubre la esencia caribeña con nuestro Ron Captain Morgan de 700 ml, la elección perfecta para los amantes de los sabores intensos y exóticos. Este ron premium, famoso por su suavidad y notas de vainilla, es ideal para disfrutar solo o en tus cócteles favoritos. Junto a él, te traemos un Chopp Edición Limitada, que complementa la experiencia con su frescura y sabor único. Perfectos para una celebración o una noche de amigos, este combo te transportará a un paraíso de sabores. ¡No te lo pierdas y brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Espumante Freixenet Mia Moscato 750ml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del festín con el Espumante Freixenet Mia Moscato 750ml, una joya de sabor y frescura que iluminará tus momentos más especiales. Este espumante, con su delicada burbuja y aroma envolvente a frutas tropicales y flores blancas, ofrece un paladar suave y equilibrado que seduce en cada sorbo. Ideal para brindar en celebraciones o disfrutar en una tarde con amigos, Freixenet Mia Moscato es la elección perfecta para aquellos que buscan lo extraordinario en cada detalle. ¡Celebra la vida con una copa de pura elegancia!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Whisky Jack Daniels Honey 750ml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito sabor del Whisky Jack Daniels Honey 750ml, una deliciosa fusión que combina la esencia del famoso Tennessee Whiskey con el toque dulce y suave de la miel. Perfecto para disfrutar solo, en las rocas o en tus cócteles favoritos, este whisky ofrece un perfil de sabor único, con notas de caramelo, vainilla y un delicado matiz de miel que seduce el paladar. Ideal para compartir entre amigos o para celebrar momentos especiales, Jack Daniels Honey es la elección perfecta para los amantes de los sabores auténticos. ¡Eleva tu experiencia de whisky hoy!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Whisky Chivas Regal Xv 750ml Dorada</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Descubre el lujo en cada sorbo con el Whisky Chivas Regal XV, presentado en su elegante botella dorada de 750 ml. Este exquisito blended escocés, añejado durante al menos 15 años, ofrece una experiencia de sabor inigualable que combina notas de frutas maduras, miel y un toque de especias. Su suavidad y complejidad lo convierten en la elección perfecta para los amantes del buen whisky. Ideal para celebrar momentos especiales o como un regalo sofisticado, Chivas Regal XV es el compañero perfecto para brindar con estilo. ¡Déjate seducir por su distinción!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Espumante Mavam Bronze 750ml + Estuche</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Descubre el placer efervescente del Espumante Mavam Bronze 750ml, una joya enológica que combina elegancia y sabor en cada burbuja. Este espumante, elaborado con uvas seleccionadas, ofrece notas frutales y un acabado suave que lo convierten en el acompañante perfecto para cualquier celebración. Presentado en un sofisticado estuche, es ideal para regalar o disfrutar en momentos especiales. Deleita tus sentidos y brinda con estilo con Mavam Bronze, un espumante que transforma cada instante en una experiencia inolvidable. ¡Salud!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Espumante Mavam Gold 750ml + Estuche</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y el sabor excepcional del Espumante Mavam Gold 750ml, presentado en un sofisticado estuche que lo convierte en el regalo perfecto para cualquier ocasión. Este espumante, de burbujas finas y persistentes, ofrece una mezcla armoniosa de notas frutales y florales, que deleitarán tus sentidos y elevarán tus celebraciones. Ideal para brindar en momentos especiales o para disfrutar en una noche tranquila. Sorpréndete y brinda con Mavam Gold, la elección que hará brillar tus mejores instantes. ¡Un brindis que nunca olvidarás!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Anis Najar Verde Seco 750ml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Descubre el auténtico sabor del Anís Najar Verde Seco, un licor tradicional que captura la esencia de las mejores anisas en una botella de 750ml. Su color verde vibrante y su aroma inconfundible de anís te transportarán a los campos mediterráneos, donde se cultivan los ingredientes de la más alta calidad. Ideal para disfrutar solo, en cocktails o como digestivo, este anís es la elección perfecta para cualquier ocasión. Sumérgete en una experiencia de sabor excepcional y brinda con Najar, el auténtico anís que deleita los sentidos. ¡Pruébalo y déjate seducir!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ron Abuelo Añejo 1 Lt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito Ron Abuelo Añejo, un auténtico tesoro de Panamá que seduce los sentidos con su rica herencia y sabor inconfundible. Este ron añejo, envejecido cuidadosamente en barricas de roble, ofrece notas de vainilla, caramelo y frutos secos, creando una experiencia de degustación suave y compleja. Ideal para disfrutar solo, en compañía o en tus cócteles favoritos, el Ron Abuelo Añejo transforma cualquier ocasión en un momento memorable. Eleva tu paladar con la tradición y la calidad que solo Abuelo puede ofrecer. ¡Brinda con nosotros!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Licor Jagermeister 1Lt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Descubre el inconfundible sabor del Licor Jägermeister en su presentación de 1 litro, la elección perfecta para compartir momentos especiales con amigos y familiares. Elaborado con 56 hierbas, raíces y frutas, este icónico licor alemán ofrece una experiencia única que combina un delicado equilibrio de dulzura y amargor, ideal para disfrutar solo, con hielo o en cócteles innovadores. Su distintiva botella de vidrio oscuro y su receta secreta hacen de Jägermeister un clásico que complementa cualquier celebración. ¡Brinda con Jägermeister y eleva tus ocasiones!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anis Najar Rojo Crema 750ml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Descubre la exquisita experiencia del Anís Najar Rojo Crema en su presentación de 750ml, una bebida que combina la tradición y el sabor auténtico en cada sorbo. Su textura suave y cremosa, unida a un delicado toque de anís, ofrece un sabor único que deleitará tu paladar. Ideal para disfrutar solo, en cócteles o como un delicioso postre. Perfecto para compartir en reuniones, celebraciones o simplemente para darte un gusto. ¡Haz de cada momento algo especial con Anís Najar Rojo Crema!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Licor Cachaza 51 965ml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Descubre el auténtico sabor de Brasil con el Licor Cachaça 51, presentado en una elegante botella de 965 ml. Este emblemático licor, elaborado a partir de caña de azúcar de la más alta calidad, captura la esencia de la tradición brasileña en cada sorbo. Perfecto para mezclar en cocktails clásicos como la caipirinha, o para disfrutarlo solo, su sabor suave y afrutado te llevará a un viaje sensorial inolvidable. Ideal para celebraciones o momentos de relajación, el Cachaça 51 es el acompañante perfecto para cualquier ocasión. ¡Siente el ritmo de Brasil en tu copa!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Licor Tres Plumas Cacao 700ml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Descubre el placer excepcional del Licor Tres Plumas Cacao 700ml, una exquisita fusión de cacao seleccionado y tradición artesanal. Este licor de sabor intenso y suave al paladar te transportará a un mundo de sensaciones únicas con cada sorbo. Perfecto para disfrutar solo, en cócteles sofisticados o como acompañamiento en momentos especiales, su seductora dulzura y aroma envolvente lo convierten en el regalo ideal para los amantes del buen gusto. Eleva tus celebraciones y sorprende a tus seres queridos con la elegancia del Licor Tres Plumas Cacao. ¡Brinda por los momentos inolvidables!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aguardiente Antioqueño Rojo 750ml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de Colombia con el Aguardiente Antioqueño Rojo, un elixir que encarna la tradición y la pasión de nuestra tierra. Con su presentación de 750 ml, esta bebida espirituosa destaca por su distintivo sabor anisado, elaborado con los mejores ingredientes que garantizan una experiencia inigualable. Ideal para brindis y celebraciones, cada sorbo revela la autenticidad de Antioquia. Disfrútalo solo, con hielo, o en deliciosos cocteles. Aguardiente Antioqueño Rojo: el alma de la fiesta, el sabor de la alegría. ¡Prueba y celebra!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Red Label 750ml Sestuche + Vaso</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Descubre el icónico Whisky Johnnie Walker Red Label, una experiencia inigualable de sabor y aroma en cada sorbo. Presentado en un elegante estuche, este whisky de 750ml es perfecto para quienes aprecian la calidad y la tradición. Su mezcla de maltas seleccionadas ofrece notas ahumadas y especiadas que seducen al paladar, convirtiéndolo en la elección ideal para cualquier ocasión. Además, incluye un vaso exclusivo, ideal para degustar tu bebida favorita con estilo. Regala o disfruta de un momento sofisticado con Johnnie Walker Red Label. ¡Elevemos el brindis!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vino Trumpeter Merlot 750ml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y el carácter del Vino Trumpeter Merlot 750ml, una joya de la viticultura argentina. Este vino tinto seduce con su intenso color rubí y sus aromas a frutas maduras, como ciruelas y cerezas, complementados por elegantes notas de vainilla y especias. Su sabor es suave y balanceado, con taninos bien integrados que ofrecen una experiencia de degustación placentera y persistente. Ideal para acompañar carnes rojas, pastas o simplemente para disfrutar en buena compañía. Eleva tus momentos especiales con Trumpeter Merlot, la elección perfecta para los amantes del vino.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Whisky Ballantines Finest Con Caja 700ml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y sofisticación del Whisky Ballantine's Finest, una joya escocesa presentada en una hermosa caja de 700ml. Este whisky de mezcla, con su sabor suave y equilibrado, es ideal tanto para los conocedores como para quienes se inician en el mundo del whisky. Con notas de miel, vainilla y un toque de frutas frescas, cada sorbo te transportará a las tierras de Escocia. Perfecto para compartir en ocasiones especiales o disfrutar en momentos de relax. Regala o déjate seducir por la esencia de Ballantine's Finest, un clásico que nunca pasa de moda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Crema de Coco Bar Baileys 240 ml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Descubre la indulgencia en cada sorbo con la Crema de Coco Bar Baileys de 240 ml. Esta deliciosa crema combina la suavidad de la leche fresca con la rica esencia del coco, ofreciendo una experiencia única y refrescante para tus cócteles y postres. Perfecta para disfrutar sola, en un vaso con hielo, o como un toque especial en tus recetas favoritas. Con su sabor suave y dulce, esta crema es ideal para agregar un giro tropical a tus celebraciones. ¡Atrévete a deleitarte con cada gota de este placer irresistible!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Vino Casillero Del Diablo Merlot 750ml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Descubre el inconfundible sabor del Vino Casillero del Diablo Merlot, una joya de la viticultura chilena que encantará a los paladares más exigentes. Con su intenso color rojo rubí y aromas a frutas negras maduras, como ciruelas y moras, este vino ofrece una experiencia sensorial única. En boca, presenta una suave y aterciopelada textura, complementada por sutiles notas de vainilla y especias, resultado de su crianza en barricas de roble. Perfecto para maridar con carnes rojas, pastas y quesos maduros, este Merlot es la elección ideal para cualquier ocasión. ¡Déjate seducir por su encanto!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Licor Tres Plumas Café 700ml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Descubre el auténtico sabor de la tradición con Licor Tres Plumas Café. Este exquisito licor de 700ml combina la riqueza del café selecto con un toque de suavidad y dulzura, creando una experiencia única en cada sorbo. Ideal para disfrutar solo, en cócteles o como un delicioso final para tus comidas, su aroma envolvente y su sabor profundo te transportarán a un mundo de placer. Perfecto para compartir momentos especiales o para regalar a los amantes del buen café. ¡Eleva tus brindis con Licor Tres Plumas Café!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Licor Tres Plumas Durazno 700ml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Descubre el placer de los sabores auténticos con el Licor Tres Plumas Durazno 700ml. Esta exquisita bebida, elaborada con la mejor selección de duraznos frescos, ofrece un equilibrio perfecto entre dulzura y frescura, ideal para cualquier ocasión. Su aroma envolvente y su sabor suave lo convierten en la opción perfecta para disfrutar solo, en cocktails o con tus postres favoritos. Deleita tus sentidos y sorprende a tus amigos con la experiencia única que solo Tres Plumas puede ofrecer. Elevate tus momentos con cada sorbo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ron Capitan Morgan 700ml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Descubre el auténtico sabor del Caribe con Ron Capitán Morgan 700ml, una bebida premium que te transporta a playas de arena blanca y noches vibrantes. Elaborado con una cuidada selección de ingredientes, este ron ofrece notas suaves de vainilla, especias y caramelo, ideal para disfrutar solo o en tus cócteles favoritos. Su versatilidad lo convierte en el compañero perfecto para celebraciones con amigos o momentos de relajación. Eleva tus experiencias con el sabor inconfundible de Capitán Morgan y deja que cada sorbo cuente una historia. ¡Brinda por la aventura!</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Vino Tabernero Tuyo Rosé 750ml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y elegancia del Vino Tabernero Tuyo Rosé 750ml, una experiencia inigualable para los amantes del buen vino. Con un delicado color rosa pálido, este vino ofrece aromas envolventes de frutas rojas y flores, que invitan a un sorbo refrescante y equilibrado. Ideal para disfrutar en una tarde de verano o en reuniones con amigos, su acidez suave y su final persistente lo convierten en el acompañante perfecto para platos ligeros, ensaladas y mariscos. Brinda momentos memorables con Tabernero Tuyo Rosé. ¡Déjate seducir!</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ron Barceló Dorado 1Lt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Descubre el sabor excepcional de Ron Barceló Dorado 1Lt, un ron dominicano que fusiona tradición y modernidad en cada gota. Su proceso de envejecimiento en barricas de roble le otorga un color ámbar brillante y un aroma cautivador de vainilla y frutas tropicales. Ideal para disfrutar solo, con hielo o en cocteles, su suavidad y equilibrio lo convierten en el compañero perfecto para cualquier ocasión. Eleva tus momentos especiales con la calidad y autenticidad de Ron Barceló, un auténtico ícono del ron caribeño. ¡Prueba la excelencia en cada sorbo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Vino Santiago Queirolo Borgoña Semi Seco 750ml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de la tradición vitivinícola con el Vino Santiago Queirolo Borgoña Semi Seco 750ml. Este elegante vino ofrece un equilibrio perfecto entre dulzura y acidez, seduciendo con sus notas frutales que evocan frescas cerezas y ciruelas. Ideal para acompañar una variedad de platos, desde carnes blancas hasta postres suaves, es la elección perfecta para cualquier ocasión. Su presentación en botella de 750ml lo convierte en un excelente regalo o en la estrella de tus reuniones. ¡Eleva tus momentos con un sorbo de Santiago Queirolo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Vodka Smirnoff Raspberry 750ml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito Vodka Smirnoff Raspberry, una experiencia que deleita tus sentidos. Con un suave sabor a frambuesa natural, este vodka de 750ml es perfecto para crear cócteles vibrantes o disfrutarlo solo sobre hielo. Su distinción se debe a su triple destilación y la pureza de sus ingredientes, que garantizan un trago suave y refrescante. Ideal para tus reuniones con amigos o noches de celebración, Vodka Smirnoff Raspberry es el complemento perfecto para cualquier ocasión. ¡Eleva tu brindis y sorprende a tus invitados!</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tequila Jimador Blanco 750ml</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del auténtico tequila con Jimador Blanco 750ml, una joya de México que destaca por su pureza y frescura. Elaborado a partir de agaves 100% de la región de Los Altos de Jalisco, este tequila se caracteriza por su sabor suave y notas cítricas, perfectas para disfrutar solo o en cócteles. Su proceso de destilación se realiza en alambiques de cobre, garantizando un producto de alta calidad. Ideal para celebraciones o momentos de relajación, Jimador Blanco es la elección perfecta para los amantes del tequila. ¡Brinda con lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tequila Tres Caballos Gold 750ml + Shot</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Descubre la esencia auténtica de México con el Tequila Tres Caballos Gold. Esta exquisita bebida, presentada en una elegante botella de 750 ml, ofrece un sabor suave y distintivo, resultado de un cuidadoso proceso de destilación a partir de las mejores agaves. Su color ámbar resplandece en cada sorbo, mientras que su carácter robusto y notas de vainilla y caramelo deleitarán a los paladares más exigentes. Ideal para compartir con amigos o disfrutar en momentos especiales, el Tequila Tres Caballos Gold viene acompañado de un práctico shot para elevar tu experiencia. ¡Siente el espíritu de México en cada trago!</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vino Tabernero Gran Selección Rosé 750ml</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia de Vino Tabernero Gran Selección Rosé, una auténtica joya que deleitará tus sentidos. Con su exquisito color rosado y notas frescas de frutas rojas y flores, este vino ofrece una experiencia refrescante y vibrante en cada sorbo. Perfecto para acompañar tus momentos más especiales, ya sean en una cena elegante o una reunión con amigos, su equilibrada acidez y final persistente lo convierten en el compañero ideal. Disfruta de la calidad y tradición de Tabernero en cada botella de 750ml. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vino Concha y Toro Reservado Carmenere 750ml</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Descubre el sabor único del Vino Concha y Toro Reservado Carmenere 750ml, una joya de los valles chilenos que captura la esencia de la tradición vinícola. Este vino tinto de cuerpo medio ofrece una explosión de aromas a frutos rojos maduros, con notas de especias y un delicado toque herbáceo. Su suavidad y elegancia en boca lo convierten en el compañero perfecto para carnes asadas, quesos curados o una cena a la luz de las velas. Disfruta de una experiencia de cata inigualable con este referente del Carmenere, ideal para cualquier ocasión.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pisco La Botija Tabernero Italia 700ml</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de la tradición con el Pisco La Botija Tabernero Italia 700ml, un destilado que captura la pureza y riqueza de las uvas seleccionadas de la variedad Italia. Este pisco se elabora con un meticuloso proceso, que resalta sus notas florales y frutales, ofreciendo una experiencia de sabor suave y equilibrada. Ideal para disfrutar solo, en cocktails o como un regalo especial, La Botija es el compañero perfecto para celebraciones y momentos memorables. Déjate seducir por su calidad premium y autenticidad en cada sorbo. ¡Brinda con la excelencia de Tabernero!</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pisco Huamaní Mosto Verde Acholado 700ml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Pisco Huamaní Mosto Verde Acholado, una joya de la destilería peruana que combina las mejores variedades de uva, logrando un equilibrio perfecto entre aromas y sabores. Este pisco de 700ml resalta notas frutales y florales con un final envolvente y sedoso, ideal para disfrutar solo, en cócteles o con buena compañía. Elaborado con mosto verde, su proceso artesanal garantiza una calidad superior que deleitará a los paladares más exigentes. Perfecto para brindar en cualquier ocasión. ¡Vive la experiencia Huamaní!</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vino Tacama Triunfo Selección Especial Petit Verdot-Tannat 750ml</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Descubre la excelencia enológica del Vino Tacama Triunfo Selección Especial, una cautivadora fusión de Petit Verdot y Tannat. Este vino de 750 ml presenta una intensa paleta de aromas, donde se entrelazan notas de frutos negros maduros, especias sutiles y una elegante mineralidad. Su crianza en barricas de roble aporta una complejidad inigualable, realzando su cuerpo robusto y taninos firmes. Ideal para acompañar carnes rojas y platos gourmet, el Tacama Triunfo es la elección perfecta para celebrar momentos especiales y deleitar paladares exigentes. ¡Brinda por los buenos momentos con Tacama!</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ron Cartavio Superior 750ml</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Ron Cartavio Superior 750ml, una joya peruana que captura la esencia de la tradición y la maestría ronera. Con su suave aroma a vainilla y notas de frutos tropicales, este ron se caracteriza por su sabor equilibrado y su final persistente. Ideal para disfrutar solo, en cocteles o con hielo, Cartavio Superior es perfecto para celebrar momentos especiales o relajarse después de un largo día. Elevate tu experiencia de degustación con este ron premium que refleja el corazón y la pasión de su tierra de origen. ¡Brinda por la vida con Cartavio!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Black Label 750ml</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del whisky escocés con Johnnie Walker Black Label 750ml, una experiencia de sabor inigualable para los amantes del buen beber. Este whisky de mezcla, envejecido por un mínimo de 12 años, destaca por su suavidad excepcional y notas profundas de frutas oscuras, especias y un toque ahumado. Perfecto para disfrutar solo, en las rocas o en cócteles sofisticados, cada sorbo revela la maestría de los destiladores de Johnnie Walker. Eleva tus momentos y brinda con la elegancia atemporal de este icónico destilado. ¡Haz de cada trago una celebración!</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Gin Beefeater London Pink 700ml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y el sabor inconfundible de Gin Beefeater London Pink, una deliciosa ginebra que combina la tradición de Beefeater con un toque frutal. Elaborada en el corazón de Londres, esta ginebra se destila con fresas jugosas y botánicos seleccionados, creando un equilibrio perfecto entre dulzura y frescura. Ideal para disfrutar en un refrescante gin tonic o en cócteles creativos, Beefeater Pink es la elección perfecta para cualquier ocasión. Deleita tus sentidos y eleva tus reuniones con una bebida que celebra el espíritu vibrante de la ciudad. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Espumante Tabernero Especial Semi Seco 750ml</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y frescura del Espumante Tabernero Especial Semi Seco 750ml, la opción perfecta para brindar en cualquier ocasión. Este espumante, elaborado con uvas seleccionadas, ofrece un equilibrio ideal entre dulzura y acidez, con burbujas delicadas que despiertan los sentidos. Su aroma frutal y notas de flor de saúco lo convierten en una experiencia única para paladares exigentes. Ideal para acompañar aperitivos, postres o disfrutar solo, el Espumante Tabernero es el complemento perfecto para celebrar momentos especiales. ¡Sorprende a tus invitados y déjate seducir por su frescura!</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vino Santiago Queirolo Magdalena Semi Sco 750ml</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y el sabor del Vino Santiago Queirolo Magdalena Semi Seco. Este exquisito vino de 750 ml, elaborado con uvas seleccionadas, ofrece un equilibrio perfecto entre dulzura y frescura, ideal para cualquier ocasión. Su aroma afrutado y notas florales lo convierten en la opción perfecta para acompañar tus momentos especiales, ya sea en una cena con amigos o una celebración íntima. Disfruta de una experiencia sensorial única con cada sorbo y déjate seducir por la tradición y la calidad de Santiago Queirolo. ¡Brinda con Magdalena!</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pisco La Caravedo Acholado 750ml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez de Pisco La Caravedo Acholado, un destilado premium que encarna la riqueza del terroir peruano. Elaborado con una cuidada selección de uvas de distintas variedades, este pisco ofrece un perfil aromático complejo, donde notas frutales y florales se entrelazan armoniosamente. Su sabor suave y equilibrado, con un elegante final, lo convierte en la elección perfecta para los amantes de los licores finos. Ideal para disfrutar solo, en cócteles o como un regalo sofisticado, Pisco La Caravedo Acholado es una celebración de la tradición y la calidad. ¡Brinda con nosotros!</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ron Bacardí Carta Blanca 750ml</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del Caribe con Ron Bacardí Carta Blanca, un ícono de excelencia en el mundo de los rones. En su presentación de 750 ml, este ron blanco se destaca por su sabor suave y ligero, resultado de un cuidadoso proceso de destilación y maduración en barricas de roble. Perfecto para mezclar en tus cócteles favoritos, como la clásica piña colada o el refrescante mojito, Bacardí Carta Blanca promete llevarte a playas paradisiacas con cada sorbo. Disfruta de un trago versátil que realza cualquier celebración. ¡Brinda con Bacardí!</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gin Beefeater London Dry 700ml</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de Londres con el Gin Beefeater London Dry, un clásico que captura la tradición y el arte de la destilación. Elaborado con una receta única que combina 9 botánicos seleccionados meticulosamente, este gin ofrece un perfil de sabor equilibrado, con notas de enebro, cítricos frescos y un toque herbal. Ideal para cócteles icónicos como el gin tonic o el martini, su sabor refinado y su aroma envolvente lo convierten en la elección perfecta para cualquier ocasión. Disfruta de una experiencia británica auténtica en cada sorbo. ¡Atrévete a brindar con Beefeater!</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Whisky Something Special 750ml + Vaso Pavonado</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y sofisticación del Whisky Something Special, presentado en una elegante botella de 750 ml que captura la esencia de una mezcla excepcional de maltas. Su sabor suave y equilibrado, con notas de madera, frutas y un toque de especias, ofrece una experiencia única en cada sorbo. Cada botella se acompaña de un exclusivo vaso pavonado, ideal para degustar tu whisky favorito con estilo. Perfecto para compartir en ocasiones especiales o para disfrutar en momentos de relax, este pack es el regalo ideal para los amantes del buen whisky. ¡Disfruta de lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Vino Santiago Queirolo Moscato Semi Seco 750ml</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y exquisitez del Vino Santiago Queirolo Moscato Semi Seco en su elegante botella de 750ml. Este vino destaca por su delicado aroma a frutas tropicales y flores blancas, ofreciendo una experiencia sensorial única. Su sabor equilibrado, con una dulzura sutil y una acidez refrescante, lo convierte en el acompañante ideal para postres, quesos suaves o momentos de celebración. Perfecto para disfrutar en pareja o con amigos, el Moscato de Queirolo es una joya del viñedo peruano que hará de tu brindis un momento inolvidable. ¡Déjate seducir!</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Espumante Roi De Paris Brut 750 ml</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia en cada burbuja con el Espumante Roi De Paris Brut 750 ml. Este exquisito espumante, con su distintivo sabor fresco y afrutado, es ideal para cualquier ocasión especial. Su proceso de fermentación meticuloso resalta notas sutiles de manzana verde y citrus, mientras que su burbujeo delicado y persistente brinda una experiencia de cata única. Perfecto como aperitivo o para maridar con platos gourmet, el Roi De Paris Brut transforma cada brindis en un momento inolvidable. ¡Elevate tus celebraciones con este lujo en cada copa!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Whisky Chivas Regal 18 Años 700ml</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Descubre la sofisticación del Whisky Chivas Regal 18 Años, un destilado que captura la esencia de la tradición escocesa en cada gota. Con 18 años de maduración, este whisky ofrece un sabor profundo y complejo, con notas de frutas secas, chocolate y un toque sutil de especias que deleitan el paladar. Su suavidad excepcional y su acabado prolongado lo convierten en el compañero ideal para celebraciones especiales o momentos de reflexión. Presentado en una elegante botella de 700 ml, es el regalo perfecto para los amantes del buen whisky. ¡Eleva tus momentos con Chivas Regal 18!</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tequila Don Julio Reposado 750ml</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Descubre la excelencia de Tequila Don Julio Reposado, un destilado que encarna la tradición y la artesanía mexicana. En su presentación de 750 ml, este tequila maduro ofrece una experiencia excepcional gracias a su añejamiento en barricas de roble blanco, que realzan sus notas suaves de vainilla, caramelo y un toque de agave fresco. Perfecto para disfrutar solo, con hielo o en tus cócteles favoritos, Don Julio Reposado es la elección ideal para quienes buscan un sabor sofisticado y auténtico. Eleva tus momentos especiales con cada sorbo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Vino Trapiche Reserva Malbec 750ml</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y riqueza del Vino Trapiche Reserva Malbec 750ml, una joya de la vinicultura argentina que promete deleitar tus sentidos. Con su intenso color rojo oscuro y aromas profundos de frutas negras, especias y un sutil toque de roble, este Malbec es la elección perfecta para acompañar tus comidas favoritas. Su sabor suave y equilibrado, con taninos aterciopelados, lo convierte en un vino ideal para compartir momentos especiales. Déjate seducir por la autenticidad y calidad que solo Trapiche puede ofrecer. ¡Brinda con nosotros!</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Gin Antagonic Clásico 750ml</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Descubre la esencia única del Gin Antagonic Clásico 750ml, una auténtica obra maestra de la destilación. Elaborado en pequeños lotes, este gin premium combina botánicos seleccionados meticulosamente, creando un equilibrio perfecto entre frescura y sofisticación. Su carácter vibrante y su aroma envolvente lo convierten en la elección ideal para cocteles clásicos o disfrutar solo con hielo. Embárcate en un viaje sensorial con cada sorbo y deja que Gin Antagonic Clásico eleve tus momentos especiales. Ideal para los conocedores y los amantes de la buena vida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Vino Ayra Borgona 750ml + Vino Ayra Rosé Semi Seco 750ml + Sacacorcho</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Descubre la perfecta fusión de sabores con nuestro exclusivo pack que incluye el exquisito Vino Ayra Borgona, ideal para ocasiones especiales, y el refrescante Vino Ayra Rosé Semi Seco, que añade un toque vibrante a cualquier celebración. Ambos vinos de 750ml son seleccionados meticulosamente para ofrecer una experiencia sensorial única. Además, incluye un elegante sacacorcho, asegurando que estés listo para descorchar y disfrutar al instante. Eleva tus momentos con esta irresistible combinación que encantará a todos en tu mesa. ¡Brinda con Ayra!</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Martini Vermouth Rosso 750ml</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Martini Vermouth Rosso 750ml, un verdadero ícono de la coctelería. Su blend único de hierbas seleccionadas y vino italiano de alta calidad crea una experiencia gustativa inigualable, ideal para disfrutar solo, en las rocas o como base perfecta para tus cócteles favoritos. Con notas de frutas, especias y un toque de dulzura, Martini Vermouth Rosso invita a un momento de elegancia y sofisticación en cada sorbo. Perfecto para compartir en reuniones o para darte un capricho, ¡transforma cualquier ocasión en una celebración!</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whisky Grants Triple Wood 1Lt</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez de Whisky Grants Triple Wood 1Lt, una joya escocesa que deleita los sentidos. Este whisky se elabora mediante una cuidadosa mezcla de maltas y un proceso de maduración en tres tipos de barricas: roble americano, roble europeo y barricas de vino, lo que le otorga una complejidad y suavidad inigualables. Su exquisito sabor presenta notas de frutos secos, vainilla y un toque de especias, ideal para disfrutar solo o en cocktails exclusivos. Eleva tus momentos con Grants, la elección perfecta para los amantes del buen whisky.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pisco Ayra Italia 750ml + Jarabe De Goma Chunpi Espumante + Gaseosa Evervess Ginger Ale Botella 1.5L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Descubre la perfecta combinación de sabores con nuestro Pisco Ayra Italia 750ml, un destilado premium que evoca la tradición y calidad del Perú. Acompáñalo con el exquisito Jarabe de Goma Chunpi Espumante, que añade un toque dulce y burbujeante a tus cocteles. Para realzar aún más la experiencia, incluye la refrescante Gaseosa Evervess Ginger Ale en su generosa botella de 1.5L, ideal para mezclar o disfrutar solo. Perfecto para tus celebraciones o como un regalo único, eleva tus momentos con esta deliciosa trifecta. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ron Barceló Gran Añejo 1Lt</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del Caribe con Ron Barceló Gran Añejo 1Lt, una joya premium elaborada en la República Dominicana. Este ron, envejecido a la perfección en barricas de roble, ofrece un equilibrio sublime de sabores, fusionando notas de vainilla, caramelo y frutos secos. Su color ámbar profundo y su textura suave lo convierten en la elección ideal para quienes buscan una experiencia de degustación inigualable. Perfecto solo o en cócteles, Ron Barceló Gran Añejo es la invitación a disfrutar momentos memorables. ¡Brinda por lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Vino Casillero Del Diablo Dark Red 750ml</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Descubre la intensidad y el misterio del Vino Casillero Del Diablo Dark Red 750ml, una exquisita creación que combina lo mejor de las variedades tintas más selectas. Con su profundo color rubí y notas de frutas maduras, especias y un toque sutil de roble, este vino te llevará a un viaje sensorial inolvidable. Ideal para acompañar carnes rojas, quesos curados o disfrutar en buena compañía, su sabor robusto y equilibrado lo convierte en la elección perfecta para cualquier ocasión. Deja que el legendario Casillero Del Diablo transforme tu mesa en una experiencia única. ¡Brinda con nosotros!</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ron Bacardí Carta Oro 750ml</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Descubre la suavidad y el sabor inconfundible del Ron Bacardí Carta Oro 750ml, una joya de la destilería que combina tradición y excelencia. Elaborado con caña de azúcar seleccionada y envejecido en barricas de roble, este ron ofrece un perfil aromático excepcional con notas de vainilla y frutas secas, perfecto para disfrutar solo, con hielo o en exquisitos cócteles. Ideal para compartir en momentos especiales, Bacardí Carta Oro es la elección perfecta que elevará tu experiencia de sabor. ¡Descubre la pasión de Bacardí!</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pisco La Botija Tabernero Acholado 700ml</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito Pisco La Botija Tabernero Acholado 700ml, una joya de la destilación peruana que combina las mejores uvas de las variedades Quebranta y Acholada. Este pisco presenta un aroma intenso y frutal, con notas de pera y melaza, que te transportará a los valles peruanos en cada sorbo. Su sabor equilibrado y suave se despliega en un final persistente, ideal para disfrutar solo, en cócteles o como complemento de una buena comida. Elevate tus momentos con la calidad y tradición de La Botija, una experiencia única para los amantes del buen gusto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vino Trapiche Vineyard Malbec 750ml</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del terroir argentino con el Vino Trapiche Vineyard Malbec 750ml, una experiencia sensorial inigualable. Este vino se caracteriza por su intenso color rojo profundo y aromas de frutas negras maduras, como ciruelas y moras, complementados con notas sutiles de vainilla y especias. Su cuerpo robusto y taninos elegantes aseguran un final prolongado que deleita el paladar. Ideal para maridar con carnes asadas o quesos curados, el Malbec de Trapiche es el compañero perfecto para tus celebraciones y momentos especiales. ¡Déjate seducir por la calidad de Trapiche!</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Crema Baileys Original 750ml</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Descubre la suavidad y el sabor inconfundible de la Crema Baileys Original 750ml, un deleite que combina la rica crema irlandesa con el exquisito whisky. Perfecta para disfrutar sola, en cócteles o como toque especial en tus postres favoritos, esta deliciosa crema ofrece una experiencia indulgente en cada sorbo. Con su textura aterciopelada y un ligero dulzor, es el acompañante ideal para momentos compartidos o para consentirte en una noche tranquila. ¡Deleita tus sentidos con el auténtico sabor de Baileys!</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Whisky Jack Daniels 750ml</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Descubre la esencia auténtica del whisky con Jack Daniels, un ícono de Tennessee que deleita los sentidos desde 1866. Este exquisito whisky, destilado en pequeños lotes, ofrece una suavidad inigualable y un sabor profundo, gracias a su proceso único de filtrado en carbón de arce. Con notas de vainilla, caramelo y un sutil toque ahumado, Jack Daniels es perfecto para disfrutar solo, en las rocas o en cócteles clásicos. Presentado en una elegante botella de 750ml, es el regalo ideal para los amantes del buen beber y una elección imprescindible para cualquier reunión. ¡Sumérgete en la tradición y calidad de Jack Daniels!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Espumante Santiago Queirolo Primadonna 750ml</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Descubre el esplendor del Espumante Santiago Queirolo Primadonna, una experiencia burbujeante que capturará tus sentidos. Con su elegante presentación de 750ml, este espumante destaca por su frescura y notas afrutadas, perfectas para brindar en cualquier ocasión. Elaborado con uvas seleccionadas de los mejores viñedos, su método tradicional asegura una experiencia de sabor única y sofisticada. Ideal para celebraciones o como un regalo especial, Primadonna transforma cada instante en un momento memorable. ¡Descúbrelo y déjate seducir por su burbujeante encanto!</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Vino Tacama Rose Semi Seco 750ml</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y elegancia del Vino Tacama Rosé Semi Seco 750ml, una joya de la viticultura peruana. Este vino cautiva con su hermoso color rosa pálido y su aroma delicado de frutas frescas y flores, ofreciendo una experiencia sensorial única en cada sorbo. Con un equilibrio perfecto entre dulzura y acidez, es ideal para acompañar aperitivos, pescados, ensaladas y platos de carne blanca. Perfecto para cualquier ocasión, Tacama Rosé es el compañero ideal para tus momentos especiales. ¡Brinda con lo mejor y deja que cada copa hable por sí misma!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Vino Tabernero Borgoña 750ml</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Vino Tabernero Borgoña 750ml, un elixir que combina tradición y sabor en cada sorbo. Proveniente de selectas uvas de la región, este vino tinto destaca por su intenso aroma a frutas rojas maduras,  además de notas sutiles de especias y madera. Su cuerpo equilibrado y suave tanino ofrecen una experiencia única en el paladar, perfecta para acompañar carnes, pastas o disfrutar solo en una velada especial. Ideal para cualquier ocasión, el Vino Tabernero Borgoña es la elección perfecta para los amantes del buen vino. ¡Brinda con lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Black Label 1Lt</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Descubre la sofisticación en cada sorbo con el Whisky Johnnie Walker Black Label de 1 litro. Este icónico whisky escocés, conocido por su rica y compleja mezcla de malta, ofrece notas profundas de frutas secas, vainilla y un toque ahumado que deleitará tu paladar. Ideal para compartir en ocasiones especiales o disfrutar en momentos de relajación, su sabor inconfundible y su elegante botella lo convierten en el regalo perfecto para los amantes del whisky. Eleva tu experiencia de degustación con Johnnie Walker Black Label, una verdadera leyenda en el mundo de los whisky.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Vodka Russkaya Apple 750ml</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Descubre el Vodka Russkaya Apple, la perfecta fusión entre suavidad y frescura en cada sorbo. Con su origen en la tradición rusa, este vodka premium se elabora con manzanas seleccionadas que aportan un sabor afrutado y equilibrado. Su presentación en botella de 750ml lo convierte en la opción ideal para celebraciones y reuniones con amigos. Perfecto para disfrutar solo, en cócteles o con hielo, el Vodka Russkaya Apple transforma cualquier ocasión en un momento memorable. ¡Atrévete a probarlo y sorprende a tu paladar!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tequila José Cuervo Especial Reposado 750ml</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Descubre la auténtica tradición mexicana con el Tequila José Cuervo Especial Reposado. Este excepcional tequila, añejado en barricas de roble durante un mínimo de dos meses, ofrece un equilibrio perfecto entre suavidad y riqueza de sabor. Su color ámbar brillante y sus notas de vainilla, caramelo y especias lo convierten en una elección ideal para aquellos que buscan disfrutar de un trago sofisticado. Perfecto para preparar cócteles clásicos o saborearlo solo, el José Cuervo Especial Reposado es el compañero ideal para celebrar momentos inolvidables. ¡Atrévete a brindar con el verdadero sabor de México!</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vino Finca Rotondo Gran Reserva Blend Isabel 750ml + Vino Finca Rotondo Reserva Malbec 375ml</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Descubre la excelencia de la enología con nuestro pack exclusivo que incluye el Vino Finca Rotondo Gran Reserva Blend Isabel de 750ml y el Vino Finca Rotondo Reserva Malbec de 375ml. Este elegante blend destaca por su complejidad y riqueza de sabores, ideal para paladares exigentes, mientras que el Malbec reserva ofrece notas de frutos rojos y un final suave y persistente. Perfectos para toda ocasión, estos vinos son el acompañamiento ideal para una cena especial o un regalo único para los amantes del buen vino. ¡Brinda con lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pisco La Botija Tabernero Quebranta 700ml</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del Perú con el Pisco La Botija Tabernero Quebranta 700ml, una joya de la destilería que captura la autenticidad de la uva Quebranta. Este pisco de sabor suave y elegante ofrece notas frutales y un sutil toque de especias, ideal para disfrutar solo o en cocteles. Su cuidadosa elaboración y su crianza en botijas de barro le otorgan un carácter distintivo y un aroma envolvente. Perfecto para compartir en momentos especiales o para deleitar tu paladar con la tradición peruana. ¡Eleva tu experiencia con La Botija!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Vino Casillero Del Diablo Red Blend 750ml</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Descubre la sofisticación y el carácter del Vino Casillero Del Diablo Red Blend 750ml, una auténtica joya del Valle del Rapel en Chile. Este vino, con su enriquecedora mezcla de variedades, ofrece una explosión de sabores frutales, como frutos rojos y un toque de especias, todo enmarcado por suaves taninos y una refrescante acidez. Ideal para acompañar carnes asadas, pastas y quesos curados, este vino es el aliado perfecto para tus celebraciones y momentos especiales. Eleva tus cenas y brinda con estilo con Casillero Del Diablo. ¡Tómate un sorbo y descubre el misterio!</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Vino Trumpeter Cabernet Sauvignon 750ml</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y la potencia del Vino Trumpeter Cabernet Sauvignon 750ml, una joya de la vinicultura argentina. Con su intenso color rojo rubí y aromas a frutos negros, como ciruelas y moras, este vino ofrece una experiencia sensorial inigualable. En boca, sus taninos suaves y bien integrados se combinan con notas de vainilla y especias, dejando un final largo y placentero. Ideal para acompañar carnes rojas, pastas con salsa y quesos curados, el Trumpeter Cabernet Sauvignon es la opción perfecta para momentos especiales o una cena en casa. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Vino Concha y Toro Reservado Sauvignon Blanc 750ml</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y elegancia del Vino Concha y Toro Reservado Sauvignon Blanc 750ml, una joya de la viticultura chilena. Este vino blanco destaca por su brillante color amarillo pálido y sus aromas cítricos y herbales, que evocan notas de limón y hojas de tomate. Su sabor fresco y vibrante, con una acidez equilibrada, lo convierte en el acompañante perfecto para mariscos, ensaladas y platos ligeros. Ideal para disfrutar en cualquier ocasión, el Reservado Sauvignon Blanc es la elección perfecta para quienes buscan calidad y un toque de sofisticación en cada copa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Vino Finca Las Moras Varietal Malbec 750ml</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de la viticultura argentina con el Vino Finca Las Moras Varietal Malbec 750ml. Este exquisito vino tinto se caracteriza por su profundo color rubí y aromas envolventes de frutos rojos, especias y toques de roble. Su sabor es robusto y elegante, con taninos suaves que ofrecen un final persistente. Perfecto para acompañar asados, quesos curados o disfrutar en una velada especial. Finca Las Moras captura la pasión y la tradición del terroir argentino, haciendo de cada sorbo una experiencia inolvidable. ¡Brinda con el sabor auténtico del Malbec!</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Vino Tacama De La Viña Tinto Semi Dulce 750ml</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Descubre el Vino Tacama De La Viña Tinto Semi Dulce, una exquisita fusión de sabores que cautiva los sentidos. Suelen destacarse aromas frutales, con notas de cereza y ciruela, equilibrados por un toque sutil de dulzura que lo convierte en el acompañante perfecto para cualquier ocasión. Este vino de 750 ml resalta la calidad del terroir peruano, elaborado con uvas seleccionadas y una vinificación artesanal que respeta las tradiciones. Disfrútalo solo, con postres o en celebraciones; ¡una experiencia única en cada sorbo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Vino Trumpeter Chardonnay 750ml</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia en cada sorbo con el Vino Trumpeter Chardonnay 750ml, una exquisita expresión de los mejores viñedos de Argentina. Este vino blanco cautiva con su brillante color dorado y aromas envolventes de frutas tropicales, como piña y mango, complementados por sutiles notas de vainilla y mantequilla provenientes de su crianza en barricas. Su paladar fresco y equilibrado ofrece una acidez vibrante, ideal para maridar con pescados, mariscos o una deliciosa pasta. Perfecto para cualquier ocasión, el Trumpeter Chardonnay es el acompañante ideal para brindar por los momentos especiales de la vida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vino Tabernero Tuyo Borgoña 750ml</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Vino Tabernero Tuyo Borgoña, un auténtico tesoro en cada sorbo. Proveniente de los fértiles viñedos del Perú, este vino tinto de cuerpo intenso deslumbra con sus notas frutales y un delicado toque a madera que realza su complejidad. Ideal para acompañar tus momentos más especiales, ya sea una cena íntima o una celebración con amigos. Su elegante presentación en botella de 750ml lo convierte en el regalo perfecto para los amantes del vino. Deleita tu paladar con la esencia de Tabernero Tuyo, una experiencia que no te puedes perder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Agua Gin Mr Perkins Pink Soda 200ml X4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y sofisticación de Agua Gin Mr Perkins Pink Soda en su conveniente presentación de 200ml x 4. Esta bebida premium combina la suavidad del agua con un toque de gin, creando una experiencia refrescante y elegante. Su distintivo sabor afrutado y burbujeante es perfecto para disfrutar solo o como base para tus cócteles favoritos. Ideal para cualquier ocasión, desde reuniones con amigos hasta momentos de relajación. Eleva tus celebraciones con Mr Perkins y deleita a tus sentidos con cada sorbo. ¡Haz de cada brindis un momento especial!</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Whisky Chivas Regal 12 Años 1Lt</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Descubre la sofisticación y el sabor inconfundible del Whisky Chivas Regal 12 Años en su elegante presentación de 1 litro. Este whisky escocés, madurado durante 12 años en barricas de roble, cautiva con su combinación de notas de miel, frutas y un toque de especias, brindando una experiencia de cata excepcional. Perfecto para disfrutar solo, con hielo o en cócteles creativos, Chivas Regal 12 Años es la elección ideal para quienes aprecian la calidad y la tradición. Añade un toque de distinción a tus momentos especiales con este clásico atemporal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Licor Drambuie Liqueur 750ml</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito sabor del Licor Drambuie, una joya escocesa que combina la suavidad del whisky con la dulzura de la miel y una mezcla secreta de hierbas. Presentado en una elegante botella de 750 ml, este licor es perfecto para disfrutar solo, en las rocas o como base en cócteles sofisticados. Su perfil aromático único y su final suave lo convierten en la elección ideal para aquellos que buscan experimentar una auténtica tradición escocesa. Disfruta de momentos especiales con Drambuie y déjate seducir por su inconfundible carácter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ron Flor De Caña 07 Años 1Lt</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Descubre la excelencia del Ron Flor de Caña 07 Años, un destilado premium de Nicaragua que captura la esencia de la tradición y la calidad. Con su elegante aroma a caramelo y vainilla, cada sorbo revela notas de frutas tropicales y un acabado suave y equilibrado. Ideal para disfrutar solo, en las rocas o en exquisitos cócteles, este ron representa 7 años de maduración en barricas de roble que le otorgan un carácter distintivo y profundo. Perfecto para celebraciones o simplemente para deleitar a los amantes del buen ron, Flor de Caña 07 Años es una experiencia inigualable. ¡Brinda con lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ron Flor De Caña 12 Años 750ml</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Ron Flor de Caña 12 Años, un tesoro nicaragüense que encapsula 12 años de maduración en barricas de roble blanco. Su sabor suave y complejo ofrece notas de vainilla, cacao y frutas secas, ideal para los paladares más refinados. Perfecto solo o en cócteles, este ron destaca por su calidad sostenible y reconocimiento internacional, convirtiéndolo en la elección perfecta para celebrar esos momentos especiales. Eleva tu experiencia con un sorbo de tradición y pasión en cada botella de Flor de Caña 12 Años.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jarabe De Goma Espumante Chunpi 750ml Pet</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Descubre el delicioso Jarabe De Goma Espumante Chunpi de 750ml, la elección perfecta para realzar tus bebidas y postres. Con su suave textura y sabor irresistiblemente dulce, este jarabe es ideal para preparar refrescantes cocktails, batidos cremosos o darle un toque especial a tus helados y frutas. Presentado en un práctico envase PET, es fácil de almacenar y usar. Atrévete a innovar en la cocina y sorprende a tus invitados con creaciones únicas y sofisticadas. ¡Con Chunpi, cada sorbo es una explosión de sabor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pack Evan Whisky Williams Fire 750ml + Miniaturas</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Descubre el Pack Evan Whisky Williams Fire, una experiencia única para los amantes del whisky. Este elegante set incluye una botella de 750 ml de nuestro exquisito whisky, conocido por su sabor suave y notas especiadas que despiertan los sentidos. Además, recibirás miniaturas que son perfectas para disfrutar en cualquier ocasión o para compartir con amigos. Ideal para regalar o como un capricho personal, este pack combina calidad y presentación, permitiéndote saborear momentos especiales con cada sorbo. ¡No te lo pierdas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Whisky Jack Daniels Single Barrel 750ml</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Whisky Jack Daniels Single Barrel, una joya de la destilería más icónica de Tennessee. Con su cuidadosa selección de barricas individuales, este whisky ofrece una experiencia de sabor inigualable, donde se entrelazan notas de caramelo, vainilla y un toque de roble ahumado. Cada sorbo revela la complejidad y el carácter robusto que solo un único barril puede ofrecer. Perfecto para disfrutar solo, en las rocas o en tu cóctel favorito, Jack Daniels Single Barrel es la elección ideal para quienes buscan un trago sofisticado y lleno de tradición. ¡Brinda con lo mejor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jarabe De Goma Espumante Chunpi 750ml Vidrio</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Descubre la deliciosa versatilidad del Jarabe de Goma Espumante Chunpi en su elegante presentación de 750 ml en vidrio. Ideal para dar un toque especial a tus bebidas, este jarabe aporta una textura suave y burbujeante, elevando tus cócteles, sodas y postres a un nuevo nivel de sabor. Con su fórmula de alta calidad, garantiza un sabor intenso y refrescante que deleitará a tus invitados en cada ocasión. Perfecto para los amantes de la mixología y la repostería, ¡haz de cada sorbo una experiencia memorable con Chunpi!</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Pisco Santiago Queirolo Puro Italia 750 ml</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito Pisco Santiago Queirolo Puro Italia 750 ml, una joya de la destilería peruana que resalta la tradición y el arte de la elaboración de pisco. Este licor, elaborado a partir de uvas Italia de calidad superior, ofrece un sabor suave y afrutado, con notas florales que deleitarán tu paladar. Ideal para disfrutar solo, en cócteles selectos o como acompañante de una buena conversación, su elegante presentación lo convierte en el regalo perfecto. ¡Vive la experiencia del auténtico pisco peruano con Santiago Queirolo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Vino Marques De Casa Concha Chardonnay 750ml</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y sofisticación del Vino Marqués de Casa Concha Chardonnay 750 ml, una joya de la viticultura chilena. Este exquisito vino blanco presenta notas frescas de frutas tropicales y un sutil toque de vainilla, resultado de su crianza en barricas de roble. Su acidez equilibrada y cuerpo sedoso lo convierten en el acompañante ideal para mariscos, pescado a la parrilla o una tabla de quesos. Ya sea para una ocasión especial o una cena íntima, el Marqués de Casa Concha Chardonnay asegura una experiencia de sabor inolvidable. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Vino Finca Rotondo Reserva Malbec 750ml + Reserva Malbec 375ml</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Descubre la esencia del terroir argentino con el Vino Finca Rotondo Reserva Malbec, un dúo excepcional que combina dos tamaños para cada ocasión. El elegante Malbec de 750ml ofrece una experiencia sensorial rica en aromas frutales y notas de especias, ideal para acompañar tus platillos favoritos. Complementado por el formato de 375ml, perfecto para disfrutar en momentos íntimos o como regalo. Ambos vinos destacan por su alta calidad y complejidad, convirtiéndolos en la elección perfecta para los amantes del vino que buscan premium y sofisticación. ¡Brinda con Finca Rotondo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Licor Amaro Di Angostura 750 ml</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Descubre el Licor Amaro Di Angostura, una exquisita mezcla de hierbas y especias en una presentación de 750 ml. Este licor, reconocido por su sabor inconfundible, combina notas amargas y dulces que evocan una experiencia sensorial única. Perfecto para disfrutar solo, con hielo o como ingrediente estrella en cocteles clásicos y contemporáneos, Amaro Di Angostura aporta un toque sofisticado a cualquier ocasión. Su elegante botella lo convierte también en un regalo ideal para los amantes de los licores refinados. ¡Sumérgete en el arte de la mixología con Amaro Di Angostura!</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Whisky Chivas Regal Ultis 700ml</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Descubre la esencia de la perfección en cada gota con el Whisky Chivas Regal Ultis. Este exclusivo whisky escocés de 700ml es una obra maestra que combina maltas excepcionales provenientes de las mejores destilerías de Escocia. Su sabor profundo y complejo se despliega con notas de frutas maduras, miel y un toque de especias, creando una experiencia única al paladar. Ideal para los verdaderos aficionados y perfectos para momentos especiales, Chivas Regal Ultis te invita a disfrutar de la sofisticación y el arte de la destilación en cada sorbo. ¡Déjate seducir por su elegancia!</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Vino Taso Real Tempranillo Semi Dulce 750ml</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Descubre el placer auténtico del Vino Taso Real Tempranillo Semi Dulce, una joya enológica que cautiva con su equilibrada mezcla de suavidad y frescura. Proveniente de viñedos seleccionados, este vino presenta aromas frutales irresistibles y un paladar sedoso que lo convierte en el acompañante perfecto para cualquier ocasión. Ideal para disfrutar solo o maridar con postres y platos ligeros, su formato de 750ml es perfecto para compartir momentos especiales. Regala a tus sentidos una experiencia única con Taso Real, el vino que transformará tus brindis en memorables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Vino Intipalka Reserva Malbec Merlot 750ml</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Descubre el Vino Intipalka Reserva Malbec Merlot, una exquisita fusión de dos variedades emblemáticas que capturan la esencia del Valle de Ica en Perú. Con una complejidad aromática que destaca notas de frutas negras, chocolate y especias, cada sorbo te transporta a paisajes de viñedos bañado por el sol. Su elegante equilibrio de taninos y acidez lo convierte en el acompañante perfecto para carnes rojas, quesos curados y momentos memorables. Disfruta de una experiencia sensorial única en cada botella de este vino de reserva. ¡Brinda por lo excepcional!</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Champagne Moet Chandon Brut Imperial 750ml</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Descubre la elegancia y sofisticación del Champagne Moët &amp; Chandon Brut Impérial 750ml, un brindis perfecto para cada celebración. Este icónico espumoso francés presenta notas frescas de frutas cítricas, manzana y un delicado toque de brioche, creando una experiencia sensorial única. Su burbujeo refinado y su equilibrio excepcional lo convierten en el acompañante ideal para momentos inolvidables. Ya sea en una cena especial o una fiesta, el Moët &amp; Chandon Brut Impérial es más que una bebida, es un símbolo de distinción y celebración. ¡Brinda con estilo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Pisco La Botija Tabernero Italia De 700ml + Evervess 15L</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez de Pisco La Botija Tabernero Italia de 700ml, una joya destilada en el corazón del Perú, que resalta por su suavidad y aromas frutales. Perfecto para disfrutar solo o en cocteles. Complementa tu experiencia con Evervess de 15L, la soda ideal para mezclar y realzar los sabores de tu pisco. Este pack es la elección perfecta para tus celebraciones, ofreciendo un brindis sofisticado y refrescante. Eleva tus momentos especiales con la combinación perfecta de tradición y frescura. ¡Haz de cada ocasión un evento inolvidable!</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Gold Label Reserve 750ml</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Descubre el Whisky Johnnie Walker Gold Label Reserve, una celebración del arte de la destilación. Este exquisito whisky escocés de 750ml presenta un equilibrio excepcional de sabores, donde notas de frutas secas, vainilla y un sutil toque ahumado se entrelazan en un perfil sofisticado. Ideal para ocasiones especiales, su suave acabado y elegancia lo convierten en la elección perfecta para disfrutar solo o en cócteles. Deleita tus sentidos con cada sorbo y brinda por los momentos memorables con Johnnie Walker Gold Label Reserve, el símbolo de un auténtico legado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Vino Santiago Queirolo Sauvignon Blanc 750ml</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Descubre la frescura y elegancia del Vino Santiago Queirolo Sauvignon Blanc, un exquisito vino blanco de 750 ml que captura la esencia del terroir peruano. Con notas vibrantes de cítricos y frutas tropicales, este Sauvignon Blanc se caracteriza por su acidez equilibrada y su aroma envolvente. Ideal para maridar con mariscos, ensaladas y platillos ligeros, es la opción perfecta para cualquier ocasión. Disfruta de un sorbo de frescura y calidad en cada copa, y déjate seducir por la tradición vitivinícola de Santiago Queirolo, un nombre reconocido en el mundo del vino. ¡Brindemos por momentos inolvidables!</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Vino Intipalka Reserva Cabernetsyrah 750ml</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Descubre la excelencia del Vino Intipalka Reserva Cabernetsyrah, una joya de 750 ml que captura la esencia del valle peruano. Este vino tinto, elaborado con uvas seleccionadas de Cabernet Sauvignon y Syrah, ofrece un bouquet intenso de frutas rojas maduras, toques de especias y un sutil trasfondo de madera que evoca complejidad y sofisticación. Su cuerpo robusto y taninos suaves lo convierten en el acompañante perfecto para carnes asadas, quesos curados o una cena especial. Brinda momentos inolvidables con cada sorbo de Intipalka. ¡Déjate seducir por su elegancia!</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ron Santa Teresa Gran Reserva Añejo 750ml</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Descubre la exquisitez del Ron Santa Teresa Gran Reserva Añejo, una joya de la destilación venezolana que captura la esencia de las tradiciones centenarias. En su presentación de 750ml, este ron revela complejos aromas de vainilla, frutas maduras y sutiles notas de especias, resultado de su cuidadosa maduración en barricas de roble. Perfecto para degustar solo, en cocktails clásicos o maridado con un buen chocolate, cada sorbo te transporta a los trópicos. Elevate tus momentos de celebración con la elegancia y el carácter único de Santa Teresa. ¡Siente la historia en cada copa!</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Licor Tres Plumas Amaretto 700ml</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Descubre el exquisito sabor del Licor Tres Plumas Amaretto, un deleite que captura la esencia de las almendras en cada sorbo. Con su suave y sedosa textura, este licor de 700 ml es perfecto para disfrutar solo, en cócteles o como un irresistible acompañante en postres. Su equilibrada mezcla de dulzura y un ligero toque de amargor lo convierte en la elección ideal para cualquier ocasión. Con Tres Plumas Amaretto, eleva tus momentos y brinda con un producto que promete una experiencia única e inolvidable. ¡Déjate seducir por su magia!</t>
         </is>
       </c>
     </row>
